--- a/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0583C72-B8DA-844A-ADDC-EA7A95369290}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="2440" windowWidth="20140" windowHeight="21100" xr2:uid="{E4055AB2-CCDE-2247-9B36-F1FB62CB34DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E4055AB2-CCDE-2247-9B36-F1FB62CB34DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,51 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="11">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>time</t>
+    <t>species</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>gill</t>
   </si>
   <si>
-    <t>gill-GDA</t>
+    <t>GDA</t>
   </si>
   <si>
-    <t>gill-GDB</t>
+    <t>GDB</t>
   </si>
   <si>
-    <t>gill-GDC</t>
+    <t>GDC</t>
   </si>
   <si>
-    <t>gill-GDA-sa</t>
+    <t>GDA-sa</t>
   </si>
   <si>
-    <t>digestive gland-GDA</t>
+    <t>digestive gland</t>
   </si>
   <si>
-    <t>digestive gland-GDA-sa</t>
+    <t>remaining tissues</t>
   </si>
   <si>
-    <t>digestive gland-GDB</t>
+    <t>day</t>
   </si>
   <si>
-    <t>digestive gland-GDC</t>
-  </si>
-  <si>
-    <t>remaining tissues-GDA</t>
-  </si>
-  <si>
-    <t>remaining tissues-GDB</t>
-  </si>
-  <si>
-    <t>remaining tissues-GDC</t>
-  </si>
-  <si>
-    <t>remaining tissues-GDA-sa</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -136,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,509 +420,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F6BED1-3AA0-E54E-AC48-A3163BCA1070}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
         <v>155.35714285714201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
+        <v>96</v>
+      </c>
+      <c r="D4">
         <v>58.407079646017699</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>120</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.1238938053097298</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>192</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.59292035398229</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>32.389380530973398</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
       <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
         <v>9.0265486725663493</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>96</v>
-      </c>
       <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
         <v>3.1858407079646098</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>20.707964601769898</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
       <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>7.4336283185840797</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>96</v>
-      </c>
       <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
         <v>2.1238938053097298</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>4.2477876106194898</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
         <v>7.4336283185840797</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
         <v>1.06194690265485</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
         <v>23.549488054607501</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>24</v>
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
       <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
         <v>41.569965870307101</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>96</v>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="D18">
         <v>36.860068259385599</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>120</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.02389078498293</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>192</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.204778156996582</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
         <v>2.4573378839590401</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
         <v>9.4197952218430103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="D23">
         <v>45.665529010238899</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>120</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6.9624573378839596</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>192</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.4334470989761099</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
         <v>1.8430034129692801</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
         <v>2.0477815699658701</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
+        <v>96</v>
+      </c>
+      <c r="D28">
         <v>1.22866894197953</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
       </c>
       <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
         <v>1.4334470989761099</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
       </c>
       <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
         <v>1.22866894197953</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
       </c>
       <c r="C31">
+        <v>96</v>
+      </c>
+      <c r="D31">
         <v>1.63822525597269</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
         <v>131.92697768762599</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
       <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
         <v>23.829787234042499</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34">
+        <v>96</v>
+      </c>
+      <c r="D34">
         <v>8.2978723404255206</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>120</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.27659574468086</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
         <v>192</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.4893617021276599</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
         <v>6.59574468085105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
         <v>1.27659574468086</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
+        <v>96</v>
+      </c>
+      <c r="D39">
         <v>0.21276595744680499</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
         <v>4.6808510638297998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
         <v>0.63829787234041602</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42">
+        <v>96</v>
+      </c>
+      <c r="D42">
         <v>0.21276595744680499</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
         <v>2.5531914893616898</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
         <v>1.4893617021276599</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
+        <v>96</v>
+      </c>
+      <c r="D45">
         <v>0.21276595744680499</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0583C72-B8DA-844A-ADDC-EA7A95369290}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C532532A-914A-AB4B-8CEF-63F219690BD4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E4055AB2-CCDE-2247-9B36-F1FB62CB34DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{E4055AB2-CCDE-2247-9B36-F1FB62CB34DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>treatment</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -121,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,19 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F6BED1-3AA0-E54E-AC48-A3163BCA1070}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -440,625 +453,643 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>155.35714285714201</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>96</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>58.407079646017699</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>120</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.1238938053097298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
         <v>192</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.59292035398229</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>32.389380530973398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9.0265486725663493</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>96</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3.1858407079646098</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>20.707964601769898</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7.4336283185840797</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>96</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.1238938053097298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
       <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>4.2477876106194898</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7.4336283185840797</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>96</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.06194690265485</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
       <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>23.549488054607501</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>41.569965870307101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>96</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>36.860068259385599</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>120</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.02389078498293</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>192</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.204778156996582</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
       <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
         <v>2.4573378839590401</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>9.4197952218430103</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>96</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>45.665529010238899</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>120</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6.9624573378839596</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>192</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.4334470989761099</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
       <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
         <v>1.8430034129692801</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.0477815699658701</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>96</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.22866894197953</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
       <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
         <v>1.4334470989761099</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>24</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.22866894197953</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>96</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.63822525597269</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>131.92697768762599</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>24</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>23.829787234042499</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>96</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>8.2978723404255206</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>120</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.27659574468086</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>192</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.4893617021276599</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
       <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
         <v>6.59574468085105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>24</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1.27659574468086</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>96</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.21276595744680499</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
       <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
         <v>4.6808510638297998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>24</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.63829787234041602</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>96</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.21276595744680499</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
       <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
         <v>2.5531914893616898</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>24</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.4893617021276599</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>96</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.21276595744680499</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Gaillard_2024_Fig_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C532532A-914A-AB4B-8CEF-63F219690BD4}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{0DF19FB0-60A0-0946-BAED-201F003F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA7EBF4-BA36-4142-9370-BFDAE360E6E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{E4055AB2-CCDE-2247-9B36-F1FB62CB34DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="14">
   <si>
     <t>treatment</t>
   </si>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F6BED1-3AA0-E54E-AC48-A3163BCA1070}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,6 +554,9 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
       <c r="D7">
         <v>6</v>
       </c>
@@ -568,6 +571,9 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
       <c r="D8">
         <v>24</v>
       </c>
@@ -582,6 +588,9 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
       <c r="D9">
         <v>96</v>
       </c>
@@ -596,6 +605,9 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
       <c r="D10">
         <v>6</v>
       </c>
@@ -610,6 +622,9 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
       <c r="D11">
         <v>24</v>
       </c>
@@ -624,6 +639,9 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
       <c r="D12">
         <v>96</v>
       </c>
@@ -638,6 +656,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
       <c r="D13">
         <v>6</v>
       </c>
@@ -652,6 +673,9 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
       <c r="D14">
         <v>24</v>
       </c>
@@ -666,6 +690,9 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
       <c r="D15">
         <v>96</v>
       </c>
@@ -680,6 +707,9 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
       <c r="D16">
         <v>6</v>
       </c>
@@ -694,6 +724,9 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
       <c r="D17">
         <v>24</v>
       </c>
@@ -708,6 +741,9 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
       <c r="D18">
         <v>96</v>
       </c>
@@ -722,6 +758,9 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
       <c r="D19">
         <v>120</v>
       </c>
@@ -736,6 +775,9 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
       <c r="D20">
         <v>192</v>
       </c>
@@ -750,6 +792,9 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
       <c r="D21">
         <v>6</v>
       </c>
@@ -764,6 +809,9 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
       <c r="D22">
         <v>24</v>
       </c>
@@ -778,6 +826,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
       <c r="D23">
         <v>96</v>
       </c>
@@ -792,6 +843,9 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
       <c r="D24">
         <v>120</v>
       </c>
@@ -806,6 +860,9 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
       <c r="D25">
         <v>192</v>
       </c>
@@ -820,6 +877,9 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
       <c r="D26">
         <v>6</v>
       </c>
@@ -834,6 +894,9 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
       <c r="D27">
         <v>24</v>
       </c>
@@ -848,6 +911,9 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
       <c r="D28">
         <v>96</v>
       </c>
@@ -862,6 +928,9 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
       <c r="D29">
         <v>6</v>
       </c>
@@ -876,6 +945,9 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
       <c r="D30">
         <v>24</v>
       </c>
@@ -890,6 +962,9 @@
       <c r="B31" t="s">
         <v>5</v>
       </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
       <c r="D31">
         <v>96</v>
       </c>
@@ -904,6 +979,9 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
       <c r="D32">
         <v>6</v>
       </c>
@@ -918,6 +996,9 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
       <c r="D33">
         <v>24</v>
       </c>
@@ -932,6 +1013,9 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
       <c r="D34">
         <v>96</v>
       </c>
@@ -946,6 +1030,9 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
       <c r="D35">
         <v>120</v>
       </c>
@@ -960,6 +1047,9 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
       <c r="D36">
         <v>192</v>
       </c>
@@ -974,6 +1064,9 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
       <c r="D37">
         <v>6</v>
       </c>
@@ -988,6 +1081,9 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
       <c r="D38">
         <v>24</v>
       </c>
@@ -1002,6 +1098,9 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
       <c r="D39">
         <v>96</v>
       </c>
@@ -1016,6 +1115,9 @@
       <c r="B40" t="s">
         <v>5</v>
       </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
       <c r="D40">
         <v>6</v>
       </c>
@@ -1030,6 +1132,9 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
       <c r="D41">
         <v>24</v>
       </c>
@@ -1044,6 +1149,9 @@
       <c r="B42" t="s">
         <v>5</v>
       </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
       <c r="D42">
         <v>96</v>
       </c>
@@ -1058,6 +1166,9 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
       <c r="D43">
         <v>6</v>
       </c>
@@ -1072,6 +1183,9 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
       <c r="D44">
         <v>24</v>
       </c>
@@ -1085,6 +1199,9 @@
       </c>
       <c r="B45" t="s">
         <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
       </c>
       <c r="D45">
         <v>96</v>
